--- a/DOCS/USUARIOS.xlsx
+++ b/DOCS/USUARIOS.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="245">
   <si>
     <t>sexo</t>
   </si>
@@ -435,9 +436,6 @@
     <t>ROXANA ELIZABETH</t>
   </si>
   <si>
-    <t>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values (</t>
-  </si>
-  <si>
     <t>pnacho.ugs</t>
   </si>
   <si>
@@ -562,6 +560,207 @@
   </si>
   <si>
     <t>rzambrana.ugs</t>
+  </si>
+  <si>
+    <t>UNIDAD DE GESTION DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>UGS</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>JEFATURA</t>
+  </si>
+  <si>
+    <t>GESTION DE ACTIVIDADES</t>
+  </si>
+  <si>
+    <t>MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>INTEGRACION</t>
+  </si>
+  <si>
+    <t>INCIDENTES</t>
+  </si>
+  <si>
+    <t>SOPORTE DE DATOS</t>
+  </si>
+  <si>
+    <t>SUPER ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>JEFE DE UNIDAD</t>
+  </si>
+  <si>
+    <t>COORDINADOR DE ACTIVIDADES</t>
+  </si>
+  <si>
+    <t>REPONSABLE DE MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>REPONSABLE DE INTEGRACION</t>
+  </si>
+  <si>
+    <t>REPONSABLE DE SOPORTE DE DATOS</t>
+  </si>
+  <si>
+    <t>RESPONSABLE DE GESTION PROVINCIAS</t>
+  </si>
+  <si>
+    <t>APOYO ACTIVIDADES</t>
+  </si>
+  <si>
+    <t>TECNICO MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>TECNICO DE INTEGRACION</t>
+  </si>
+  <si>
+    <t>TECNICO DE GESTION DE INCIDENTES</t>
+  </si>
+  <si>
+    <t>PROFESIONAL</t>
+  </si>
+  <si>
+    <t>TECNICO SOPORTE</t>
+  </si>
+  <si>
+    <t>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values (</t>
+  </si>
+  <si>
+    <t>(1,</t>
+  </si>
+  <si>
+    <t>,'Personal'</t>
+  </si>
+  <si>
+    <t>,'Actividades'</t>
+  </si>
+  <si>
+    <t>,'Gestión de Problemas'</t>
+  </si>
+  <si>
+    <t>,'Nuevo Requerimiento'</t>
+  </si>
+  <si>
+    <t>,'Actividades Mantenimiento'</t>
+  </si>
+  <si>
+    <t>,'Mantenimientos'</t>
+  </si>
+  <si>
+    <t>,'Configuraciones'</t>
+  </si>
+  <si>
+    <t>,'Integración'</t>
+  </si>
+  <si>
+    <t>,'Revisión de Documentación'</t>
+  </si>
+  <si>
+    <t>,'Administración de Integración'</t>
+  </si>
+  <si>
+    <t>,'Envió a Producción'</t>
+  </si>
+  <si>
+    <t>,'Reportes Consultas'</t>
+  </si>
+  <si>
+    <t>(1</t>
+  </si>
+  <si>
+    <t>,'Inicio'</t>
+  </si>
+  <si>
+    <t>,'fa fa-male'</t>
+  </si>
+  <si>
+    <t>,'glyphicon glyphicon-th-list'</t>
+  </si>
+  <si>
+    <t>,'fa fa-file-o'</t>
+  </si>
+  <si>
+    <t>,'fa fa-gears'</t>
+  </si>
+  <si>
+    <t>,'fa fa-users'</t>
+  </si>
+  <si>
+    <t>,'fa fa-files-o'</t>
+  </si>
+  <si>
+    <t>,'fa fa-bar-chart-o fa-fw'</t>
+  </si>
+  <si>
+    <t>,'a fa-share-square-o'</t>
+  </si>
+  <si>
+    <t>,'glyphicon glyphicon-search'</t>
+  </si>
+  <si>
+    <t>,1,</t>
+  </si>
+  <si>
+    <t>,'AC'</t>
+  </si>
+  <si>
+    <t>,'Personal/asignacion_area'</t>
+  </si>
+  <si>
+    <t>,'Nuevo Usuario'</t>
+  </si>
+  <si>
+    <t>,'Asignación de Área'</t>
+  </si>
+  <si>
+    <t>,2,</t>
+  </si>
+  <si>
+    <t>,'Cambio de Área'</t>
+  </si>
+  <si>
+    <t>,'Roles Usuarios'</t>
+  </si>
+  <si>
+    <t>insert into usuarios.opciones (cod_opcion,tipo_opcion,opcion,link,nivel,orden,estado)values</t>
+  </si>
+  <si>
+    <t>insert into usuarios.opciones (tipo_opcion,opcion,icono,nivel,orden,estado)values</t>
+  </si>
+  <si>
+    <t>,'Asignación de Actividades'</t>
+  </si>
+  <si>
+    <t>,'Presentaciones'</t>
+  </si>
+  <si>
+    <t>,'Envío a Producción'</t>
+  </si>
+  <si>
+    <t>,'Cancelación de actividades'</t>
+  </si>
+  <si>
+    <t>,'Cierre de actividades'</t>
+  </si>
+  <si>
+    <t>(2,</t>
+  </si>
+  <si>
+    <t>,'Revisión de actividades'</t>
+  </si>
+  <si>
+    <t>,'Registro Definición'</t>
+  </si>
+  <si>
+    <t>(3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -882,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="I8" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,17 +1114,17 @@
         <v>4</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L4" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M4" s="1" t="str">
         <f>CONCATENATE(L4,"'",G4,"','",E4,"','",F4,"',","'",I4,"','",H4,"',",J4,",'",K4,"'",",'e10adc3949ba59abbe56e057f20f883e','AC');")</f>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('PATRICIA JUSTINA','','NACHO','FEMENINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',10,'pnacho.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('PATRICIA JUSTINA','','NACHO','FEMENINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',8,'pnacho.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="5" spans="4:13" x14ac:dyDescent="0.25">
@@ -948,17 +1147,17 @@
         <v>8</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L5" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M5" s="1" t="str">
         <f t="shared" ref="M5:M45" si="0">CONCATENATE(L5,"'",G5,"','",E5,"','",F5,"',","'",I5,"','",H5,"',",J5,",'",K5,"'",",'e10adc3949ba59abbe56e057f20f883e','AC');")</f>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('HUGO GABRIEL','AGUIRRE','AGUIRRE','MASCULINO','PROFESIONAL EN MANTENIMIENTO DE SOFTWARE ',5,'haguirre.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('HUGO GABRIEL','AGUIRRE','AGUIRRE','MASCULINO','PROFESIONAL EN MANTENIMIENTO DE SOFTWARE ',8,'haguirre.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="6" spans="4:13" x14ac:dyDescent="0.25">
@@ -981,17 +1180,17 @@
         <v>8</v>
       </c>
       <c r="J6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L6" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('GROVER LEOPOLDO','ALIAGA','CANDIA','MASCULINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',9,'galiaga.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('GROVER LEOPOLDO','ALIAGA','CANDIA','MASCULINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',8,'galiaga.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="7" spans="4:13" x14ac:dyDescent="0.25">
@@ -1014,17 +1213,17 @@
         <v>8</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L7" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('ANDRES MIGUEL','ALTAMIRANO','IBAÑEZ','MASCULINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',9,'aaltamirano.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('ANDRES MIGUEL','ALTAMIRANO','IBAÑEZ','MASCULINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',8,'aaltamirano.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="8" spans="4:13" x14ac:dyDescent="0.25">
@@ -1047,17 +1246,17 @@
         <v>8</v>
       </c>
       <c r="J8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L8" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('CARLOS ARIEL','ALTAMIRANO','CHOQUE','MASCULINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',9,'caltemirano.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('CARLOS ARIEL','ALTAMIRANO','CHOQUE','MASCULINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',8,'caltemirano.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="9" spans="4:13" x14ac:dyDescent="0.25">
@@ -1080,17 +1279,17 @@
         <v>8</v>
       </c>
       <c r="J9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L9" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('ARTURO RODRIGO','APAZA','POMA','MASCULINO','PROFESIONAL EN ATENCIÓN AL CLIENTE DESCONCENTRADO - SUCRE ',12,'aapaza.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('ARTURO RODRIGO','APAZA','POMA','MASCULINO','PROFESIONAL EN ATENCIÓN AL CLIENTE DESCONCENTRADO - SUCRE ',8,'aapaza.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="10" spans="4:13" x14ac:dyDescent="0.25">
@@ -1113,17 +1312,17 @@
         <v>8</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L10" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('RICARDO','ARGANI','MAMANI','MASCULINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',9,'rargani.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('RICARDO','ARGANI','MAMANI','MASCULINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',8,'rargani.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="11" spans="4:13" x14ac:dyDescent="0.25">
@@ -1146,17 +1345,17 @@
         <v>8</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('HUGO LUIS','ARUNI','MAMANI','MASCULINO','TÉCNICO SOPORTE DE DATOS ',10,'haruni.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('HUGO LUIS','ARUNI','MAMANI','MASCULINO','TÉCNICO SOPORTE DE DATOS ',8,'haruni.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="12" spans="4:13" x14ac:dyDescent="0.25">
@@ -1179,17 +1378,17 @@
         <v>8</v>
       </c>
       <c r="J12">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('PAUL DAVID','ARUQUIPA','ESCOBAR','MASCULINO','PROFESIONAL EN ATENCIÓN AL CLIENTE DESCONCENTRADO - ORURO ',12,'paruquipa.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('PAUL DAVID','ARUQUIPA','ESCOBAR','MASCULINO','PROFESIONAL EN ATENCIÓN AL CLIENTE DESCONCENTRADO - ORURO ',8,'paruquipa.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="13" spans="4:13" x14ac:dyDescent="0.25">
@@ -1212,17 +1411,17 @@
         <v>8</v>
       </c>
       <c r="J13">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('TITO GERARDO','BLANCO','JIMENEZ','MASCULINO','TÉCNICO SOPORTE DE DATOS DESCONCENTRADO SCZ ',13,'tblanco.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('TITO GERARDO','BLANCO','JIMENEZ','MASCULINO','TÉCNICO SOPORTE DE DATOS DESCONCENTRADO SCZ ',8,'tblanco.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="14" spans="4:13" x14ac:dyDescent="0.25">
@@ -1245,17 +1444,17 @@
         <v>8</v>
       </c>
       <c r="J14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('ALIPIO JULIO','CABERO','ALVAREZ','MASCULINO','PROFESIONAL EN GESTIÓN DE PROVINCIAS ',7,'jcabero.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('ALIPIO JULIO','CABERO','ALVAREZ','MASCULINO','PROFESIONAL EN GESTIÓN DE PROVINCIAS ',8,'jcabero.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="15" spans="4:13" x14ac:dyDescent="0.25">
@@ -1278,17 +1477,17 @@
         <v>8</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('VICTOR ANDRES','CABRERA','ROLLANO','MASCULINO','PROFESIONAL SOPORTE DE DATOS ',6,'vcabrera.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('VICTOR ANDRES','CABRERA','ROLLANO','MASCULINO','PROFESIONAL SOPORTE DE DATOS ',8,'vcabrera.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="16" spans="4:13" x14ac:dyDescent="0.25">
@@ -1311,17 +1510,17 @@
         <v>8</v>
       </c>
       <c r="J16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('RUBEN PEDRO','CANAVIRI','ALI','MASCULINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',9,'rcanaviri.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('RUBEN PEDRO','CANAVIRI','ALI','MASCULINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',8,'rcanaviri.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
@@ -1344,17 +1543,17 @@
         <v>4</v>
       </c>
       <c r="J17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('YOLANDA','CHAMBI','QUISPE','FEMENINO','TÉCNICO EN GESTIÓN DE PROVINCIAS ',10,'ychambi.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('YOLANDA','CHAMBI','QUISPE','FEMENINO','TÉCNICO EN GESTIÓN DE PROVINCIAS ',8,'ychambi.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
@@ -1377,17 +1576,17 @@
         <v>8</v>
       </c>
       <c r="J18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L18" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('IVER ALFREDO','CHOQUE','CALLAPA','MASCULINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',10,'ichoque.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('IVER ALFREDO','CHOQUE','CALLAPA','MASCULINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',8,'ichoque.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
@@ -1410,17 +1609,17 @@
         <v>8</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L19" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('FRANZ JULIO','CHURQUI','AGUIRRE','MASCULINO','PROFESIONAL EN MANTENIMIENTO DE SOFTWARE ',4,'fchurqui.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('FRANZ JULIO','CHURQUI','AGUIRRE','MASCULINO','PROFESIONAL EN MANTENIMIENTO DE SOFTWARE ',8,'fchurqui.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.25">
@@ -1443,17 +1642,17 @@
         <v>4</v>
       </c>
       <c r="J20">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L20" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('FILOMENA JUANA','COLQUE','AJPE','FEMENINO','TÉCNICO ADMINISTRATIVO EN GESTIÓN DE PROVINCIAS ',13,'fcolque.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('FILOMENA JUANA','COLQUE','AJPE','FEMENINO','TÉCNICO ADMINISTRATIVO EN GESTIÓN DE PROVINCIAS ',8,'fcolque.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.25">
@@ -1476,17 +1675,17 @@
         <v>8</v>
       </c>
       <c r="J21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L21" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('JAVIER WILSON','CONDORI','MACHICADO','MASCULINO','TÉCNICO OPERADOR SOPORTE DE DATOS ',10,'jacondori.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('JAVIER WILSON','CONDORI','MACHICADO','MASCULINO','TÉCNICO OPERADOR SOPORTE DE DATOS ',8,'jacondori.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.25">
@@ -1509,17 +1708,17 @@
         <v>8</v>
       </c>
       <c r="J22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L22" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('ALVARO DIEGO','DAZA','ALCARAZ','MASCULINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',10,'ddaza.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('ALVARO DIEGO','DAZA','ALCARAZ','MASCULINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',8,'ddaza.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.25">
@@ -1542,17 +1741,17 @@
         <v>8</v>
       </c>
       <c r="J23">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L23" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('CARLOS CONRADO','DOSSERICH','RODRIGUEZ','MASCULINO','PROFESIONAL EN ATENCIÓN AL CLIENTE DESCONCENTRADO SCZ ',12,'cdosserich.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('CARLOS CONRADO','DOSSERICH','RODRIGUEZ','MASCULINO','PROFESIONAL EN ATENCIÓN AL CLIENTE DESCONCENTRADO SCZ ',8,'cdosserich.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.25">
@@ -1575,17 +1774,17 @@
         <v>8</v>
       </c>
       <c r="J24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('ALBERTO','ESCOBAR','PAZ','MASCULINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',9,'apescobar.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('ALBERTO','ESCOBAR','PAZ','MASCULINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',8,'apescobar.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.25">
@@ -1608,17 +1807,17 @@
         <v>4</v>
       </c>
       <c r="J25">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L25" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('ROSIO PAOLA','FERNANDEZ','GARCIA','FEMENINO','TÉCNICO ADMINISTRATIVO CONSULTAS DE SOPORTE DESCONCENTRADO CBBA ',13,'rfernandez.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('ROSIO PAOLA','FERNANDEZ','GARCIA','FEMENINO','TÉCNICO ADMINISTRATIVO CONSULTAS DE SOPORTE DESCONCENTRADO CBBA ',8,'rfernandez.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="26" spans="4:13" x14ac:dyDescent="0.25">
@@ -1641,17 +1840,17 @@
         <v>4</v>
       </c>
       <c r="J26">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L26" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('CLARA','FLORES','SIÑANI','FEMENINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',11,'cflores.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('CLARA','FLORES','SIÑANI','FEMENINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',8,'cflores.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.25">
@@ -1674,17 +1873,17 @@
         <v>8</v>
       </c>
       <c r="J27">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L27" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('LUIS EDUARDO','FLORES','SALAZAR','MASCULINO','PROFESIONAL EN ATENCIÓN AL CLIENTE DESCONCENTRADO CBBA ',13,'lflores.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('LUIS EDUARDO','FLORES','SALAZAR','MASCULINO','PROFESIONAL EN ATENCIÓN AL CLIENTE DESCONCENTRADO CBBA ',8,'lflores.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
@@ -1707,17 +1906,17 @@
         <v>4</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L28" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('MARIA VANESSA','HERNAN','POZO','FEMENINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',3,'vhernan.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('MARIA VANESSA','HERNAN','POZO','FEMENINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',8,'vhernan.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
@@ -1740,17 +1939,17 @@
         <v>8</v>
       </c>
       <c r="J29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L29" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('GERMAN','LIMACHI','TARQUI','MASCULINO','FERNANDO TÉCNICO MANTENIMIENTO DE SOFTWARE ',9,'glimachi.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('GERMAN','LIMACHI','TARQUI','MASCULINO','FERNANDO TÉCNICO MANTENIMIENTO DE SOFTWARE ',8,'glimachi.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
@@ -1773,17 +1972,17 @@
         <v>4</v>
       </c>
       <c r="J30">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L30" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('ANA LIZETH','MAMANI','HUALLPA','FEMENINO','TÉCNICO SOPORTE DE DATOS ',11,'amamani.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('ANA LIZETH','MAMANI','HUALLPA','FEMENINO','TÉCNICO SOPORTE DE DATOS ',8,'amamani.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="31" spans="4:13" x14ac:dyDescent="0.25">
@@ -1806,17 +2005,17 @@
         <v>8</v>
       </c>
       <c r="J31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L31" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('HUGO','MARTINEZ','LAURA','MASCULINO','TÉCNICO SOPORTE DE DATOS ',9,'hmartinez.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('HUGO','MARTINEZ','LAURA','MASCULINO','TÉCNICO SOPORTE DE DATOS ',8,'hmartinez.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="32" spans="4:13" x14ac:dyDescent="0.25">
@@ -1839,17 +2038,17 @@
         <v>8</v>
       </c>
       <c r="J32">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L32" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('JORGE LUIS','MELGAREJO','MERCADO','MASCULINO','TÉCNICO SOPORTE DE DATOS DESCONCENTRADO CBBA ',13,'jmelgarejo.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('JORGE LUIS','MELGAREJO','MERCADO','MASCULINO','TÉCNICO SOPORTE DE DATOS DESCONCENTRADO CBBA ',8,'jmelgarejo.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="33" spans="4:13" x14ac:dyDescent="0.25">
@@ -1872,17 +2071,17 @@
         <v>8</v>
       </c>
       <c r="J33">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L33" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('ROLANDO','MENA','FUENTES','MASCULINO','TÉCNICO ADMINISTRATIVO CONSULTAS DE SOPORTE DESCONCENTRADO SCZ ',12,'rmena.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('ROLANDO','MENA','FUENTES','MASCULINO','TÉCNICO ADMINISTRATIVO CONSULTAS DE SOPORTE DESCONCENTRADO SCZ ',8,'rmena.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
@@ -1905,17 +2104,17 @@
         <v>8</v>
       </c>
       <c r="J34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L34" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('LUIS BRIAM','MENDIVIL','TORRICO','MASCULINO','TÉCNICO EN GESTIÓN DE PROVINCIAS ',9,'lmendivil.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('LUIS BRIAM','MENDIVIL','TORRICO','MASCULINO','TÉCNICO EN GESTIÓN DE PROVINCIAS ',8,'lmendivil.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="35" spans="4:13" x14ac:dyDescent="0.25">
@@ -1938,17 +2137,17 @@
         <v>8</v>
       </c>
       <c r="J35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L35" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('JESUS','MENDOZA','VISCARRA','MASCULINO','TÉCNICO SOPORTE DE DATOS ',9,'jmendoza.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('JESUS','MENDOZA','VISCARRA','MASCULINO','TÉCNICO SOPORTE DE DATOS ',8,'jmendoza.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="36" spans="4:13" x14ac:dyDescent="0.25">
@@ -1971,17 +2170,17 @@
         <v>8</v>
       </c>
       <c r="J36">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L36" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('FRED RICHARD','MONTECINOS','PAREDES','MASCULINO','JEFE UNIDAD DE GESTIÓN DE SERVICIOS ',2,'fmontecinos.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('FRED RICHARD','MONTECINOS','PAREDES','MASCULINO','JEFE UNIDAD DE GESTIÓN DE SERVICIOS ',8,'fmontecinos.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="37" spans="4:13" x14ac:dyDescent="0.25">
@@ -2004,17 +2203,17 @@
         <v>4</v>
       </c>
       <c r="J37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L37" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('EVA','PACAJES','YUJRA','FEMENINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',9,'epacajes.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('EVA','PACAJES','YUJRA','FEMENINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',8,'epacajes.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="38" spans="4:13" x14ac:dyDescent="0.25">
@@ -2037,17 +2236,17 @@
         <v>8</v>
       </c>
       <c r="J38">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L38" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('LUIS ALBERTO','PEDRAZA','QUISPE','MASCULINO','PROFESIONAL EN ATENCIÓN AL CLIENTE DESCONCENTRADO TARIJA ',12,'lpedraza.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('LUIS ALBERTO','PEDRAZA','QUISPE','MASCULINO','PROFESIONAL EN ATENCIÓN AL CLIENTE DESCONCENTRADO TARIJA ',8,'lpedraza.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="39" spans="4:13" x14ac:dyDescent="0.25">
@@ -2070,17 +2269,17 @@
         <v>8</v>
       </c>
       <c r="J39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L39" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('CONSTANCIO','POMA','CHUQUIMIA','MASCULINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',9,'cpoma.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('CONSTANCIO','POMA','CHUQUIMIA','MASCULINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',8,'cpoma.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="40" spans="4:13" x14ac:dyDescent="0.25">
@@ -2103,17 +2302,17 @@
         <v>4</v>
       </c>
       <c r="J40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L40" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('GISEL PAOLA','QUINTANA','VEGA','FEMENINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',9,'gquintana.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('GISEL PAOLA','QUINTANA','VEGA','FEMENINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',8,'gquintana.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="41" spans="4:13" x14ac:dyDescent="0.25">
@@ -2136,17 +2335,17 @@
         <v>8</v>
       </c>
       <c r="J41">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L41" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('GIOVANNI FRANZ','ROQUE','BALCAZAR','MASCULINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',10,'groque.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('GIOVANNI FRANZ','ROQUE','BALCAZAR','MASCULINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',8,'groque.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="42" spans="4:13" x14ac:dyDescent="0.25">
@@ -2169,17 +2368,17 @@
         <v>4</v>
       </c>
       <c r="J42">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L42" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('KAREN LIZETH','SANCHEZ','PERALTA','FEMENINO','TÉCNICO ADMINISTRATIVO CONSULTAS DE SOPORTE ',11,'ksanchez.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('KAREN LIZETH','SANCHEZ','PERALTA','FEMENINO','TÉCNICO ADMINISTRATIVO CONSULTAS DE SOPORTE ',8,'ksanchez.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="43" spans="4:13" x14ac:dyDescent="0.25">
@@ -2202,17 +2401,17 @@
         <v>8</v>
       </c>
       <c r="J43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L43" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M43" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('GUILLERMO','VELA','VELA','MASCULINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',9,'gvela.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('GUILLERMO','VELA','VELA','MASCULINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',8,'gvela.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
@@ -2235,17 +2434,17 @@
         <v>4</v>
       </c>
       <c r="J44">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L44" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M44" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('JUANA JENNY','VELASCO','AVENDAÑO','FEMENINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',11,'jvelasco.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('JUANA JENNY','VELASCO','AVENDAÑO','FEMENINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',8,'jvelasco.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
     <row r="45" spans="4:13" x14ac:dyDescent="0.25">
@@ -2268,17 +2467,17 @@
         <v>4</v>
       </c>
       <c r="J45">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L45" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,id_tipo_user,username,contrasenia,estado)values ('ROXANA ELIZABETH','ZAMBRANA','QUISPE','FEMENINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',9,'rzambrana.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
+        <v>insert into usuarios.usuarios (nombres,primer_apellido,segundo_apellido,sexo,cargo,cod_tipo_user,username,contrasenia,estado)values ('ROXANA ELIZABETH','ZAMBRANA','QUISPE','FEMENINO','TÉCNICO MANTENIMIENTO DE SOFTWARE ',8,'rzambrana.ugs','e10adc3949ba59abbe56e057f20f883e','AC');</v>
       </c>
     </row>
   </sheetData>
@@ -2288,12 +2487,997 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C3:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:D30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="38.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A6:J41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="9" max="9" width="58.28515625" customWidth="1"/>
+    <col min="10" max="10" width="64.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>226</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f>CONCATENATE(A6,B6,C6,E6,F6,G6,H6,");")</f>
+        <v>insert into usuarios.opciones (tipo_opcion,opcion,icono,nivel,orden,estado)values(1,'Personal','fa fa-male',1,1,'AC');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>226</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" ref="I7:I16" si="0">CONCATENATE(A7,B7,C7,D7,E7,F7,G7,H7,");")</f>
+        <v>insert into usuarios.opciones (tipo_opcion,opcion,icono,nivel,orden,estado)values(1,'Actividades','glyphicon glyphicon-th-list',1,2,'AC');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>226</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into usuarios.opciones (tipo_opcion,opcion,icono,nivel,orden,estado)values(1,'Gestión de Problemas','fa fa-file-o',1,3,'AC');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" t="s">
+        <v>225</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>226</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into usuarios.opciones (tipo_opcion,opcion,icono,nivel,orden,estado)values(1,'Nuevo Requerimiento','fa fa-gears',1,4,'AC');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" t="s">
+        <v>225</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>226</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into usuarios.opciones (tipo_opcion,opcion,icono,nivel,orden,estado)values(1,'Actividades Mantenimiento','fa fa-gears',1,5,'AC');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>226</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into usuarios.opciones (tipo_opcion,opcion,icono,nivel,orden,estado)values(1,'Mantenimientos','fa fa-gears',1,6,'AC');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" t="s">
+        <v>225</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>226</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into usuarios.opciones (tipo_opcion,opcion,icono,nivel,orden,estado)values(1,'Configuraciones','fa fa-gears',1,7,'AC');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" t="s">
+        <v>220</v>
+      </c>
+      <c r="F13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>226</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into usuarios.opciones (tipo_opcion,opcion,icono,nivel,orden,estado)values(1,'Integración','fa fa-users',1,8,'AC');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" t="s">
+        <v>225</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>226</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into usuarios.opciones (tipo_opcion,opcion,icono,nivel,orden,estado)values(1,'Revisión de Documentación','fa fa-files-o',1,9,'AC');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F15" t="s">
+        <v>225</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15" t="s">
+        <v>226</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into usuarios.opciones (tipo_opcion,opcion,icono,nivel,orden,estado)values(1,'Administración de Integración','fa fa-bar-chart-o fa-fw',1,10,'AC');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F16" t="s">
+        <v>225</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>226</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into usuarios.opciones (tipo_opcion,opcion,icono,nivel,orden,estado)values(1,'Envió a Producción','a fa-share-square-o',1,11,'AC');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E17" t="s">
+        <v>224</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>226</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f>CONCATENATE(A17,B17,C17,D17,E17,F20,G17,H17,");")</f>
+        <v>insert into usuarios.opciones (tipo_opcion,opcion,icono,nivel,orden,estado)values(1,'Reportes Consultas','glyphicon glyphicon-search',2,12,'AC');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>233</v>
+      </c>
+      <c r="B20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E20" t="s">
+        <v>202</v>
+      </c>
+      <c r="F20" t="s">
+        <v>230</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>226</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f>CONCATENATE(A20,B20,C20,D20,E20,F20,G20,H20,");")</f>
+        <v>insert into usuarios.opciones (cod_opcion,tipo_opcion,opcion,link,nivel,orden,estado)values(1,1,'Nuevo Usuario','Personal',2,1,'AC');</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E21" t="s">
+        <v>227</v>
+      </c>
+      <c r="F21" t="s">
+        <v>230</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>226</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f>CONCATENATE(A21,B21,C21,D21,E21,F21,G21,H21,");")</f>
+        <v>insert into usuarios.opciones (cod_opcion,tipo_opcion,opcion,link,nivel,orden,estado)values(1,1,'Asignación de Área','Personal/asignacion_area',2,2,'AC');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>231</v>
+      </c>
+      <c r="E22" t="s">
+        <v>215</v>
+      </c>
+      <c r="F22" t="s">
+        <v>230</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22" t="s">
+        <v>226</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f>CONCATENATE(A22,B22,C22,D22,E22,F22,G22,H22,");")</f>
+        <v>insert into usuarios.opciones (cod_opcion,tipo_opcion,opcion,link,nivel,orden,estado)values(1,1,'Cambio de Área','Inicio',2,3,'AC');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>232</v>
+      </c>
+      <c r="E23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F23" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>226</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f>CONCATENATE(A23,B23,C23,D23,E23,F23,G23,H23,");")</f>
+        <v>insert into usuarios.opciones (cod_opcion,tipo_opcion,opcion,link,nivel,orden,estado)values(1,1,'Roles Usuarios','Inicio',2,4,'AC');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>235</v>
+      </c>
+      <c r="E26" t="s">
+        <v>215</v>
+      </c>
+      <c r="F26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>226</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f t="shared" ref="I26:I36" si="1">CONCATENATE(A26,B26,C26,D26,E26,F26,G26,H26,");")</f>
+        <v>insert into usuarios.opciones (cod_opcion,tipo_opcion,opcion,link,nivel,orden,estado)values(2,1,'Asignación de Actividades','Inicio',2,1,'AC');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>233</v>
+      </c>
+      <c r="B27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F27" t="s">
+        <v>230</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>226</v>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into usuarios.opciones (cod_opcion,tipo_opcion,opcion,link,nivel,orden,estado)values(2,1,'Presentaciones','Inicio',2,2,'AC');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E28" t="s">
+        <v>215</v>
+      </c>
+      <c r="F28" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>226</v>
+      </c>
+      <c r="I28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into usuarios.opciones (cod_opcion,tipo_opcion,opcion,link,nivel,orden,estado)values(2,1,'Gestión de Problemas','Inicio',2,3,'AC');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>233</v>
+      </c>
+      <c r="B29" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>205</v>
+      </c>
+      <c r="E29" t="s">
+        <v>215</v>
+      </c>
+      <c r="F29" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>226</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into usuarios.opciones (cod_opcion,tipo_opcion,opcion,link,nivel,orden,estado)values(2,1,'Nuevo Requerimiento','Inicio',2,4,'AC');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>207</v>
+      </c>
+      <c r="E30" t="s">
+        <v>215</v>
+      </c>
+      <c r="F30" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>226</v>
+      </c>
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into usuarios.opciones (cod_opcion,tipo_opcion,opcion,link,nivel,orden,estado)values(2,1,'Mantenimientos','Inicio',2,5,'AC');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>233</v>
+      </c>
+      <c r="B31" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" t="s">
+        <v>230</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31" t="s">
+        <v>226</v>
+      </c>
+      <c r="I31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into usuarios.opciones (cod_opcion,tipo_opcion,opcion,link,nivel,orden,estado)values(2,1,'Configuraciones','Inicio',2,6,'AC');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>233</v>
+      </c>
+      <c r="B32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>209</v>
+      </c>
+      <c r="E32" t="s">
+        <v>215</v>
+      </c>
+      <c r="F32" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32">
+        <v>7</v>
+      </c>
+      <c r="H32" t="s">
+        <v>226</v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into usuarios.opciones (cod_opcion,tipo_opcion,opcion,link,nivel,orden,estado)values(2,1,'Integración','Inicio',2,7,'AC');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" t="s">
+        <v>215</v>
+      </c>
+      <c r="F33" t="s">
+        <v>230</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+      <c r="H33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into usuarios.opciones (cod_opcion,tipo_opcion,opcion,link,nivel,orden,estado)values(2,1,'Revisión de Documentación','Inicio',2,8,'AC');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>237</v>
+      </c>
+      <c r="E34" t="s">
+        <v>215</v>
+      </c>
+      <c r="F34" t="s">
+        <v>230</v>
+      </c>
+      <c r="G34">
+        <v>9</v>
+      </c>
+      <c r="H34" t="s">
+        <v>226</v>
+      </c>
+      <c r="I34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into usuarios.opciones (cod_opcion,tipo_opcion,opcion,link,nivel,orden,estado)values(2,1,'Envío a Producción','Inicio',2,9,'AC');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35" t="s">
+        <v>215</v>
+      </c>
+      <c r="F35" t="s">
+        <v>230</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into usuarios.opciones (cod_opcion,tipo_opcion,opcion,link,nivel,orden,estado)values(2,1,'Cancelación de actividades','Inicio',2,10,'AC');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>233</v>
+      </c>
+      <c r="B36" t="s">
+        <v>240</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>239</v>
+      </c>
+      <c r="E36" t="s">
+        <v>215</v>
+      </c>
+      <c r="F36" t="s">
+        <v>230</v>
+      </c>
+      <c r="G36">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>226</v>
+      </c>
+      <c r="I36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into usuarios.opciones (cod_opcion,tipo_opcion,opcion,link,nivel,orden,estado)values(2,1,'Cierre de actividades','Inicio',2,11,'AC');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>233</v>
+      </c>
+      <c r="B40" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>241</v>
+      </c>
+      <c r="E40" t="s">
+        <v>215</v>
+      </c>
+      <c r="F40" t="s">
+        <v>230</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>226</v>
+      </c>
+      <c r="I40" s="1" t="str">
+        <f t="shared" ref="I40:I41" si="2">CONCATENATE(A40,B40,C40,D40,E40,F40,G40,H40,");")</f>
+        <v>insert into usuarios.opciones (cod_opcion,tipo_opcion,opcion,link,nivel,orden,estado)values(3,1,'Revisión de actividades','Inicio',2,1,'AC');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>233</v>
+      </c>
+      <c r="B41" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>242</v>
+      </c>
+      <c r="E41" t="s">
+        <v>215</v>
+      </c>
+      <c r="F41" t="s">
+        <v>244</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>226</v>
+      </c>
+      <c r="I41" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into usuarios.opciones (cod_opcion,tipo_opcion,opcion,link,nivel,orden,estado)values(3,1,'Registro Definición','Inicio' 2,'AC');</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>